--- a/takashoIEEE結果CSV/初期手札増幅実験/初期手札増幅実験結果.xlsx
+++ b/takashoIEEE結果CSV/初期手札増幅実験/初期手札増幅実験結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aharaLab\Documents\fireplaceAharaLab\takashoIEEE結果CSV\初期手札増幅実験\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEDC129-A04D-413B-83BE-C798B1A63E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADBE02B-70F0-4CBA-B05A-CFFD2316C49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CA1EB8D-5E52-464E-921B-5FBED1B20B38}"/>
+    <workbookView xWindow="36585" yWindow="1185" windowWidth="13830" windowHeight="7170" xr2:uid="{5CA1EB8D-5E52-464E-921B-5FBED1B20B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="176" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -372,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -695,7 +695,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="O2" sqref="O2:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -862,19 +862,19 @@
         <v>0.55800000000000005</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D13" si="1">C3*(1-C3)/10000</f>
+        <f t="shared" ref="D3:D10" si="1">C3*(1-C3)/10000</f>
         <v>2.4663599999999999E-5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="2">SQRT(D3)</f>
+        <f t="shared" ref="E3:E10" si="2">SQRT(D3)</f>
         <v>4.9662460672020674E-3</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F13" si="3">C3-E3*1.96</f>
+        <f t="shared" ref="F3:F10" si="3">C3-E3*1.96</f>
         <v>0.54826615770828402</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G12" si="4">C3+E3*1.96</f>
+        <f t="shared" ref="G3:G10" si="4">C3+E3*1.96</f>
         <v>0.56773384229171608</v>
       </c>
       <c r="J3" t="s">
